--- a/Web_ITF/src/assets/format/FORMATO_ALTA_MEDICOS.xlsx
+++ b/Web_ITF/src/assets/format/FORMATO_ALTA_MEDICOS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8091" uniqueCount="1838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8095" uniqueCount="1842">
   <si>
     <t>IDENTIFICADOR</t>
   </si>
@@ -5538,6 +5538,18 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>NOMBRE INSTITUCION DIRECCION</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxx</t>
+  </si>
+  <si>
+    <t>wwwwwwww</t>
+  </si>
+  <si>
+    <t>zzzzzzzzzzz</t>
   </si>
 </sst>
 </file>
@@ -5574,7 +5586,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5584,6 +5596,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF70AD47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -5615,7 +5633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -5623,6 +5641,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5941,10 +5960,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -5963,9 +5982,10 @@
     <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="67.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -6011,8 +6031,11 @@
       <c r="O1" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="5" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="6" t="s">
         <v>1720</v>
       </c>
@@ -6050,8 +6073,11 @@
         <v>17</v>
       </c>
       <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="7" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="6" t="s">
         <v>1720</v>
       </c>
@@ -6089,8 +6115,11 @@
         <v>20</v>
       </c>
       <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="7" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="6" t="s">
         <v>1720</v>
       </c>
@@ -6128,8 +6157,11 @@
         <v>17</v>
       </c>
       <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="7" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="6" t="s">
         <v>1720</v>
       </c>
@@ -6167,6 +6199,7 @@
         <v>20</v>
       </c>
       <c r="O5" s="6"/>
+      <c r="P5" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
